--- a/results.xlsx
+++ b/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
   <si>
     <t>Model</t>
   </si>
@@ -77,6 +77,24 @@
   </si>
   <si>
     <t>default (C=1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  32.00  0.5464512  0.9969213  0.0006535948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  64.00  0.5479890  0.9962364  0.0019607843</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Sens</t>
+  </si>
+  <si>
+    <t>Spec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best somwehere between 64 and 32 </t>
   </si>
 </sst>
 </file>
@@ -172,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -180,6 +198,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -486,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,9 +519,10 @@
     <col min="2" max="2" width="30.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="37.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,7 +536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -528,32 +550,32 @@
         <v>0.51296649999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -561,7 +583,7 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -574,39 +596,60 @@
       <c r="D9" s="6">
         <v>0.54562040000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G11" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
         <v>10</v>
@@ -614,7 +657,7 @@
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>

--- a/results.xlsx
+++ b/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
   <si>
     <t>Model</t>
   </si>
@@ -73,9 +73,6 @@
     <t>kNN</t>
   </si>
   <si>
-    <t>expand.grid(.k=20:40)</t>
-  </si>
-  <si>
     <t>default (C=1)</t>
   </si>
   <si>
@@ -95,6 +92,72 @@
   </si>
   <si>
     <t xml:space="preserve">Best somwehere between 64 and 32 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     'DurationOfVideoActivity'</t>
+  </si>
+  <si>
+    <t>expand.grid(.k=55:70))</t>
+  </si>
+  <si>
+    <t>k=66</t>
+  </si>
+  <si>
+    <t>k=67</t>
+  </si>
+  <si>
+    <t>expand.grid(.k=65:80)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     'ProblemID',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     'VideoScore',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     'AverageVideoTimeDiffs'</t>
+  </si>
+  <si>
+    <t>expand.grid(.k=70:100)</t>
+  </si>
+  <si>
+    <t>k=92</t>
+  </si>
+  <si>
+    <t>expand.grid(.k=90:110)</t>
+  </si>
+  <si>
+    <t>k=91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     'NumberOfThreadViews',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     'NumberOfThreadSubscribe',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     'NumberOfThreadLaunch',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     'NumberOfThreadPostOn',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     'NumberOfPostCommentOn',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     'NumberOfForumVotes',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     'NumberOfVideoPlay',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     'NumberOfVideoSeek',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     'NumberOfVideoDownload',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     'NumberOfVideoUnique',</t>
   </si>
 </sst>
 </file>
@@ -507,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45:B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,7 +607,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="6">
         <v>0.51296649999999999</v>
@@ -597,16 +660,16 @@
         <v>0.54562040000000001</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H9" t="s">
         <v>1</v>
       </c>
       <c r="I9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" t="s">
         <v>24</v>
-      </c>
-      <c r="K9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -617,10 +680,10 @@
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -631,7 +694,7 @@
         <v>15</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -712,16 +775,19 @@
         <v>4</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="6">
-        <v>0.59207989999999999</v>
+        <v>30</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0.59909349999999995</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="C24" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
@@ -744,8 +810,208 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
         <v>10</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0.59817469999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0.59722220000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="7">
+        <v>0.59985010000000005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
